--- a/system/src/main/resources/static/demo/sl_excel_less.xlsx
+++ b/system/src/main/resources/static/demo/sl_excel_less.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Project\Songdan\system\src\main\resources\static\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731E1B55-8163-4DE2-8997-0B13FF4A8B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26430" windowHeight="11655"/>
+    <workbookView xWindow="617" yWindow="1226" windowWidth="26186" windowHeight="13234" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>采购凭证</t>
   </si>
@@ -101,14 +102,22 @@
   </si>
   <si>
     <t>变压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸版本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +137,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,11 +186,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,16 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,10 +557,17 @@
       </c>
       <c r="Z1" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>